--- a/test/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
+++ b/test/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\Showcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279CD228-D998-4C98-B682-2ADF9678E8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15240" windowHeight="7815" tabRatio="329"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="329" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asthma Attack Overview" sheetId="8" r:id="rId1"/>
@@ -14,7 +20,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Asthma Attack Breakdown'!$A$1:$BM$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Asthma Attack Overview'!$A$1:$D$25</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -120,15 +134,7 @@
 (BPM)</t>
   </si>
   <si>
-    <t>BioGears HeartRate
-(BPM)</t>
-  </si>
-  <si>
     <t>HeartStrokeVolume
-(mL/Beat)</t>
-  </si>
-  <si>
-    <t>BioGears HeartStrokeVolume
 (mL/Beat)</t>
   </si>
   <si>
@@ -145,26 +151,14 @@
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears MeanArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>SystolicArterialPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears SystolicArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>CardiacOutput
 (mL/min)</t>
   </si>
   <si>
-    <t>BioGears CardiacOutput
-(mL/min)</t>
-  </si>
-  <si>
     <t>ElectroCardiogram
 (mV)</t>
   </si>
@@ -173,15 +167,7 @@
 (Breaths/min)</t>
   </si>
   <si>
-    <t>BioGears RespirationRate
-(Breaths/min)</t>
-  </si>
-  <si>
     <t>OxygenSaturation
-(fraction)</t>
-  </si>
-  <si>
-    <t>BioGears OxygenSaturation
 (fraction)</t>
   </si>
   <si>
@@ -241,9 +227,6 @@
   </si>
   <si>
     <t>End Scenario</t>
-  </si>
-  <si>
-    <t>The asthma attack scenario simulates physiology during an asthma attack and after administration of a beta-agonist. This scenario highlights the ability of the BioGears® physiology engine to simulate asthma and inhaled-drug administration.</t>
   </si>
   <si>
     <t>A 40 year old female with a history of asthma.</t>
@@ -266,9 +249,6 @@
     <t>A 40 year old female with a history of asthma  is having lunch with a friend when she begins to have an asthma attack. She reaches for her inhaler when she realizes that she left it at home. She decides to try to "ride it out," but soon realizes that she is having a moderate to severe attack. The woman asks her friend to take her to the nearest medical treatment facility.</t>
   </si>
   <si>
-    <t>See BioGears normal physiology validation (validationData.xlsx)</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -309,78 +289,41 @@
 (unitless)</t>
   </si>
   <si>
-    <t>BioGears EtCO2
-(unitless)</t>
-  </si>
-  <si>
     <t>PaO2
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears PaO2
-(mmHg)</t>
-  </si>
-  <si>
     <t>PaCO2
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears PaCO2
-(mmHg)</t>
-  </si>
-  <si>
     <t>pH</t>
-  </si>
-  <si>
-    <t>BioGears pH</t>
   </si>
   <si>
     <t>ExpiratoryReserveVolume
 (L)</t>
   </si>
   <si>
-    <t>BioGears ExpiratoryReserveVolume
-(L)</t>
-  </si>
-  <si>
     <t>ForcedVitalCapacity
 (L)</t>
   </si>
   <si>
-    <t>BioGears ForcedVitalCapacity</t>
-  </si>
-  <si>
     <t>ForcedExpiratoryVolume
 (L)</t>
   </si>
   <si>
-    <t>BioGears ForcedExpiratoryVolume
-(L)</t>
-  </si>
-  <si>
     <t>ForcedExpiratoryFlow
 (L/min)</t>
   </si>
   <si>
-    <t>BioGears ForcedExpiratoryFlow</t>
-  </si>
-  <si>
     <t>FunctionalResidualCapacity
 (L)</t>
   </si>
   <si>
-    <t>BioGears FunctionalResidualCapacity
-(L)</t>
-  </si>
-  <si>
     <t>InspiratoryCapacity
 (L)</t>
   </si>
   <si>
-    <t>BioGears InspiratoryCapacity
-(L)</t>
-  </si>
-  <si>
     <t>InspiratoryReserveVolume
 (L)</t>
   </si>
@@ -393,52 +336,28 @@
 (L)</t>
   </si>
   <si>
-    <t>BioGears MaximumVoluntaryVentilation</t>
-  </si>
-  <si>
     <t>PeakExpiratoryFlow
 (L/min)</t>
   </si>
   <si>
-    <t>BioGears PeakExpiratoryFlow</t>
-  </si>
-  <si>
     <t>ResidualVolume
 (L)</t>
   </si>
   <si>
-    <t>BioGears ResidualVolume
-(L)</t>
-  </si>
-  <si>
     <t>SlowVitalCapacity</t>
-  </si>
-  <si>
-    <t>BioGears SlowVitalCapacity</t>
   </si>
   <si>
     <t>TotalLungCapacity
 (L)</t>
   </si>
   <si>
-    <t>BioGears TotalLungCapacity
-(L)</t>
-  </si>
-  <si>
     <t>VitalCapacity
 (L)</t>
   </si>
   <si>
-    <t>BioGears VitalCapacity
-(L)</t>
-  </si>
-  <si>
     <t>LungVolumePlot</t>
   </si>
   <si>
-    <t>BioGears LungVolumePlot</t>
-  </si>
-  <si>
     <t>At the end of this segment patient has been suffering from an asthma attack for 10 minutes</t>
   </si>
   <si>
@@ -467,29 +386,6 @@
   </si>
   <si>
     <t>0.97 - 0.99</t>
-  </si>
-  <si>
-    <r>
-      <t>Standard initialization buffer for scenarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. At the end of this segment this patient is in a resting physiological state. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>For validation references this segment see the biogears documentation on resting physiology validation.</t>
-    </r>
   </si>
   <si>
     <t>Increase [1, 5]</t>
@@ -530,9 +426,6 @@
   </si>
   <si>
     <t>Back to baseline [S1]</t>
-  </si>
-  <si>
-    <t>See BioGears Documentation</t>
   </si>
   <si>
     <t xml:space="preserve">The woman begins to feel better. The attending provider orders a pulmonary function test. </t>
@@ -616,9 +509,6 @@
     <t>Pulmonary Funciton Test</t>
   </si>
   <si>
-    <t>Note: No neurological effects modeled as of 11/29/2016. Many of the cardiac effects are a result of behavioral effects. [S2] Therefore, these effects will not be present until the BioGears neuological model is implemented.</t>
-  </si>
-  <si>
     <r>
       <t>Mountain, Richard D., et al. "Acid-base disturbances in acute asthma." </t>
     </r>
@@ -739,12 +629,116 @@
   <si>
     <t>64</t>
   </si>
+  <si>
+    <t>The asthma attack scenario simulates physiology during an asthma attack and after administration of a beta-agonist. This scenario highlights the ability of the Pulse physiology engine to simulate asthma and inhaled-drug administration.</t>
+  </si>
+  <si>
+    <t>Engine HeartRate
+(BPM)</t>
+  </si>
+  <si>
+    <t>Engine HeartStrokeVolume
+(mL/Beat)</t>
+  </si>
+  <si>
+    <t>Engine MeanArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine SystolicArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine CardiacOutput
+(mL/min)</t>
+  </si>
+  <si>
+    <t>Engine RespirationRate
+(Breaths/min)</t>
+  </si>
+  <si>
+    <t>Engine OxygenSaturation
+(fraction)</t>
+  </si>
+  <si>
+    <t>Engine EtCO2
+(unitless)</t>
+  </si>
+  <si>
+    <t>Engine PaO2
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine PaCO2
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine pH</t>
+  </si>
+  <si>
+    <t>Engine ExpiratoryReserveVolume
+(L)</t>
+  </si>
+  <si>
+    <t>Engine ForcedVitalCapacity</t>
+  </si>
+  <si>
+    <t>Engine ForcedExpiratoryVolume
+(L)</t>
+  </si>
+  <si>
+    <t>Engine ForcedExpiratoryFlow</t>
+  </si>
+  <si>
+    <t>Engine FunctionalResidualCapacity
+(L)</t>
+  </si>
+  <si>
+    <t>Engine InspiratoryCapacity
+(L)</t>
+  </si>
+  <si>
+    <t>Engine MaximumVoluntaryVentilation</t>
+  </si>
+  <si>
+    <t>Engine PeakExpiratoryFlow</t>
+  </si>
+  <si>
+    <t>Engine ResidualVolume
+(L)</t>
+  </si>
+  <si>
+    <t>Engine SlowVitalCapacity</t>
+  </si>
+  <si>
+    <t>Engine TotalLungCapacity
+(L)</t>
+  </si>
+  <si>
+    <t>Engine VitalCapacity
+(L)</t>
+  </si>
+  <si>
+    <t>Engine LungVolumePlot</t>
+  </si>
+  <si>
+    <t>Standard initialization buffer for scenarios. At the end of this segment this patient is in a resting physiological state. For validation references this segment see the Engine documentation on resting physiology validation.</t>
+  </si>
+  <si>
+    <t>See Engine Documentation</t>
+  </si>
+  <si>
+    <t>Note: No neurological effects modeled as of 11/29/2016. Many of the cardiac effects are a result of behavioral effects. [S2] Therefore, these effects will not be present until the Engine neuological model is implemented.</t>
+  </si>
+  <si>
+    <t>See normal physiology validation (validationData.xlsx)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,12 +808,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -880,12 +868,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1182,13 +1164,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,13 +1182,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1221,31 +1203,31 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1266,10 +1248,10 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,37 +1284,37 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="11" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="11" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,6 +1339,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1380,22 +1374,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1410,6 +1392,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1458,7 +1443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1491,9 +1476,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1526,6 +1528,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1701,14 +1720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,20 +1738,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1750,65 +1769,65 @@
     </row>
     <row r="4" spans="1:4" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
+      <c r="B7" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
+      <c r="B8" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
+      <c r="B9" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -1828,61 +1847,61 @@
       <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="B12" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
     </row>
     <row r="13" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
+        <v>55</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
     </row>
     <row r="14" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
+        <v>56</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
     </row>
     <row r="15" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
+        <v>57</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
+        <v>59</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
+        <v>61</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1894,23 +1913,23 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
+        <v>63</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
+        <v>65</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
@@ -1956,6 +1975,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B9:D9"/>
@@ -1965,12 +1990,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,14 +2001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BM13"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,181 +2071,181 @@
         <v>23</v>
       </c>
       <c r="G1" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="K1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="O1" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="Q1" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="S1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="U1" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="W1" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Y1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="Z1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="AB1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="29" t="s">
-        <v>43</v>
-      </c>
       <c r="AC1" s="30" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF1" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ1" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN1" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP1" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV1" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="65" t="s">
+      <c r="AW1" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX1" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="67" t="s">
+      <c r="AY1" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="65" t="s">
+      <c r="AZ1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="67" t="s">
+      <c r="BA1" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB1" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="65" t="s">
+      <c r="BC1" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD1" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="AJ1" s="68" t="s">
+      <c r="BE1" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF1" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="AK1" s="65" t="s">
+      <c r="BG1" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="AL1" s="66" t="s">
+      <c r="BI1" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="69" t="s">
+      <c r="BK1" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX1" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY1" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ1" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA1" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB1" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC1" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD1" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE1" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF1" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG1" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH1" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI1" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ1" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK1" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL1" s="66" t="s">
-        <v>110</v>
-      </c>
       <c r="BM1" s="69" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="150" x14ac:dyDescent="0.25">
@@ -2240,77 +2259,77 @@
         <v>60</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>168</v>
-      </c>
       <c r="J2" s="38" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="U2" s="36" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="W2" s="36" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="X2" s="44" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="45"/>
       <c r="Z2" s="35" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA2" s="46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AC2" s="47">
         <v>40.658000000000001</v>
@@ -2390,7 +2409,7 @@
       </c>
       <c r="BK2" s="70"/>
       <c r="BL2" s="32" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="BM2" s="70"/>
     </row>
@@ -2406,19 +2425,19 @@
         <v>600</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G3" s="91">
         <v>75</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="I3" s="91">
         <v>74</v>
@@ -2426,19 +2445,19 @@
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
       <c r="L3" s="74" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="M3" s="91">
         <v>95</v>
       </c>
       <c r="N3" s="74" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="O3" s="92">
         <v>114</v>
       </c>
       <c r="P3" s="74" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="92">
         <v>5600</v>
@@ -2446,49 +2465,49 @@
       <c r="R3" s="74"/>
       <c r="S3" s="74"/>
       <c r="T3" s="74" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="U3" s="91">
         <v>24</v>
       </c>
       <c r="V3" s="74" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="W3" s="91">
         <v>0.96</v>
       </c>
       <c r="X3" s="44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="45"/>
       <c r="Z3" s="49"/>
       <c r="AA3" s="46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="49"/>
       <c r="AC3" s="75">
         <v>36.732999999999997</v>
       </c>
       <c r="AD3" s="34" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="AE3" s="93">
         <v>0.03</v>
       </c>
       <c r="AF3" s="76" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="AG3" s="91">
         <v>83</v>
       </c>
       <c r="AH3" s="76" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AI3" s="91">
         <v>45</v>
       </c>
       <c r="AJ3" s="76" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="AK3" s="93">
         <v>7.38</v>
@@ -2534,56 +2553,56 @@
         <v>300</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="J4" s="87"/>
       <c r="K4" s="88"/>
       <c r="L4" s="87" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="N4" s="87" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="P4" s="86" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="R4" s="87"/>
       <c r="S4" s="89"/>
       <c r="T4" s="74" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="V4" s="87" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="X4" s="44"/>
       <c r="Y4" s="45"/>
@@ -2592,25 +2611,25 @@
       <c r="AB4" s="49"/>
       <c r="AC4" s="47"/>
       <c r="AD4" s="34" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="AE4" s="93">
         <v>0.03</v>
       </c>
       <c r="AF4" s="76" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AG4" s="91">
         <v>92</v>
       </c>
       <c r="AH4" s="76" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="AI4" s="91">
         <v>40</v>
       </c>
       <c r="AJ4" s="76" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="AK4" s="93">
         <v>7.43</v>
@@ -2656,10 +2675,10 @@
         <v>60</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="80"/>
@@ -2680,12 +2699,12 @@
       <c r="V5" s="79"/>
       <c r="W5" s="80"/>
       <c r="X5" s="79" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Y5" s="79"/>
       <c r="Z5" s="79"/>
       <c r="AA5" s="79" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="79"/>
       <c r="AC5" s="84">
@@ -2700,91 +2719,91 @@
       <c r="AJ5" s="84"/>
       <c r="AK5" s="84"/>
       <c r="AL5" s="86" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="AM5" s="94">
         <v>1.0780000000000001</v>
       </c>
       <c r="AN5" s="86" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="AO5" s="85" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="AP5" s="32" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="AQ5" s="85" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="AR5" s="86" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="AS5" s="85" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="AT5" s="86" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="AU5" s="95">
         <v>2.2389999999999999</v>
       </c>
       <c r="AV5" s="86" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="AW5" s="94">
         <v>3.5670000000000002</v>
       </c>
       <c r="AX5" s="86" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="AY5" s="94">
         <v>3.1339999999999999</v>
       </c>
       <c r="AZ5" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA5" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="BA5" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB5" s="32" t="s">
-        <v>156</v>
-      </c>
       <c r="BC5" s="85" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="BD5" s="86" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="BE5" s="95">
         <v>1.1599999999999999</v>
       </c>
       <c r="BF5" s="86" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="BG5" s="85" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="BH5" s="86" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="BI5" s="95">
         <v>5.81</v>
       </c>
       <c r="BJ5" s="86" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="BK5" s="94">
         <v>4.6399999999999997</v>
       </c>
       <c r="BL5" s="32" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="BM5" s="70"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B6" s="42">
         <f>B5+C5</f>
@@ -2792,7 +2811,7 @@
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="51"/>
@@ -2858,7 +2877,7 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="109" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B7" s="109"/>
       <c r="C7" s="109"/>
@@ -2870,7 +2889,7 @@
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="G8" s="110" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>

--- a/test/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
+++ b/test/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279CD228-D998-4C98-B682-2ADF9678E8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D3351-A0F9-4591-841A-69CE015449BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="329" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1440" windowWidth="30630" windowHeight="25635" tabRatio="329" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asthma Attack Overview" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="169">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -615,13 +615,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>0.98</t>
-  </si>
-  <si>
     <t>91</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>75</t>
@@ -728,10 +722,13 @@
     <t>See Engine Documentation</t>
   </si>
   <si>
-    <t>Note: No neurological effects modeled as of 11/29/2016. Many of the cardiac effects are a result of behavioral effects. [S2] Therefore, these effects will not be present until the Engine neuological model is implemented.</t>
-  </si>
-  <si>
     <t>See normal physiology validation (validationData.xlsx)</t>
+  </si>
+  <si>
+    <t>Note: No neurological effects currently modeled. Many of the cardiac effects are a result of behavioral effects. [S2] Therefore, these effects will not be present until the Engine neuological model is implemented.</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -1339,6 +1336,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1349,30 +1370,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1726,7 +1723,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
@@ -1738,20 +1735,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
+      <c r="A2" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1782,52 +1779,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -1847,61 +1844,61 @@
       <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
+      <c r="B12" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
     </row>
     <row r="13" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
     </row>
     <row r="14" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
     </row>
     <row r="15" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1915,21 +1912,21 @@
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
@@ -1975,12 +1972,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B9:D9"/>
@@ -1990,6 +1981,12 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2007,8 +2004,11 @@
   </sheetPr>
   <dimension ref="A1:BM13"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="4" ySplit="23" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,13 +2071,13 @@
         <v>23</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>25</v>
@@ -2089,19 +2089,19 @@
         <v>27</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P1" s="29" t="s">
         <v>29</v>
       </c>
       <c r="Q1" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R1" s="29" t="s">
         <v>30</v>
@@ -2113,13 +2113,13 @@
         <v>31</v>
       </c>
       <c r="U1" s="65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V1" s="29" t="s">
         <v>32</v>
       </c>
       <c r="W1" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X1" s="29" t="s">
         <v>33</v>
@@ -2143,61 +2143,61 @@
         <v>67</v>
       </c>
       <c r="AE1" s="65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF1" s="67" t="s">
         <v>68</v>
       </c>
       <c r="AG1" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AH1" s="67" t="s">
         <v>69</v>
       </c>
       <c r="AI1" s="65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="68" t="s">
         <v>70</v>
       </c>
       <c r="AK1" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AL1" s="66" t="s">
         <v>71</v>
       </c>
       <c r="AM1" s="69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AN1" s="66" t="s">
         <v>72</v>
       </c>
       <c r="AO1" s="69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP1" s="66" t="s">
         <v>73</v>
       </c>
       <c r="AQ1" s="69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AR1" s="66" t="s">
         <v>74</v>
       </c>
       <c r="AS1" s="69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AT1" s="66" t="s">
         <v>75</v>
       </c>
       <c r="AU1" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AV1" s="66" t="s">
         <v>76</v>
       </c>
       <c r="AW1" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AX1" s="66" t="s">
         <v>77</v>
@@ -2209,43 +2209,43 @@
         <v>79</v>
       </c>
       <c r="BA1" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BB1" s="66" t="s">
         <v>80</v>
       </c>
       <c r="BC1" s="69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BD1" s="66" t="s">
         <v>81</v>
       </c>
       <c r="BE1" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BF1" s="66" t="s">
         <v>82</v>
       </c>
       <c r="BG1" s="69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BH1" s="66" t="s">
         <v>83</v>
       </c>
       <c r="BI1" s="69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BJ1" s="66" t="s">
         <v>84</v>
       </c>
       <c r="BK1" s="69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BL1" s="66" t="s">
         <v>85</v>
       </c>
       <c r="BM1" s="69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="150" x14ac:dyDescent="0.25">
@@ -2262,7 +2262,7 @@
         <v>111</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>92</v>
@@ -2274,7 +2274,7 @@
         <v>104</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J2" s="38" t="s">
         <v>37</v>
@@ -2337,8 +2337,8 @@
       <c r="AD2" s="32">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AE2" s="95">
-        <v>0.03</v>
+      <c r="AE2" s="94">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AF2" s="71">
         <v>95</v>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="BK2" s="70"/>
       <c r="BL2" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BM2" s="70"/>
     </row>
@@ -2468,7 +2468,7 @@
         <v>96</v>
       </c>
       <c r="U3" s="91">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="V3" s="74" t="s">
         <v>119</v>
@@ -2491,14 +2491,14 @@
       <c r="AD3" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AE3" s="93">
-        <v>0.03</v>
+      <c r="AE3" s="95">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AF3" s="76" t="s">
         <v>122</v>
       </c>
       <c r="AG3" s="91">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH3" s="76" t="s">
         <v>123</v>
@@ -2562,13 +2562,13 @@
         <v>119</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="86" t="s">
         <v>99</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J4" s="87"/>
       <c r="K4" s="88"/>
@@ -2596,13 +2596,13 @@
         <v>97</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="V4" s="87" t="s">
         <v>120</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="X4" s="44"/>
       <c r="Y4" s="45"/>
@@ -2613,8 +2613,8 @@
       <c r="AD4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AE4" s="93">
-        <v>0.03</v>
+      <c r="AE4" s="94">
+        <v>0.04</v>
       </c>
       <c r="AF4" s="76" t="s">
         <v>124</v>
@@ -2797,7 +2797,7 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="BL5" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BM5" s="70"/>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="G8" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>
